--- a/metrics/R2/upto time/Neuropatía (UPTO).xlsx
+++ b/metrics/R2/upto time/Neuropatía (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5506286320937187</v>
+        <v>0.4617684923563144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5506286320937187</v>
+        <v>0.4617684923563144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5506286320937187</v>
+        <v>0.4617684923563144</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.997414534131312</v>
+        <v>0.9786704763351035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99736044965487</v>
+        <v>0.9796918668682827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971912892269212</v>
+        <v>0.9788381226941429</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9982786766274582</v>
+        <v>0.9729727291808757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998294515299968</v>
+        <v>0.9716055580368622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9982829568300732</v>
+        <v>0.9729873440980624</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9626839802574708</v>
+        <v>0.9452452355282055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9517718213748083</v>
+        <v>0.9448967430104565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9587660214628144</v>
+        <v>0.9487146745387172</v>
       </c>
     </row>
   </sheetData>
